--- a/Code/Results/Cases/Case_9_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.87506675677982</v>
+        <v>13.5141292249796</v>
       </c>
       <c r="C2">
-        <v>8.88707344209271</v>
+        <v>8.510238775308091</v>
       </c>
       <c r="D2">
-        <v>5.36039690032246</v>
+        <v>5.402244508560745</v>
       </c>
       <c r="E2">
-        <v>9.547613753958197</v>
+        <v>9.331923073939501</v>
       </c>
       <c r="F2">
-        <v>18.14404423561617</v>
+        <v>17.6510120314542</v>
       </c>
       <c r="G2">
-        <v>22.73141635076993</v>
+        <v>21.29442229373103</v>
       </c>
       <c r="H2">
-        <v>2.082185206297643</v>
+        <v>1.997348788014085</v>
       </c>
       <c r="I2">
-        <v>2.998191488811118</v>
+        <v>2.890582596819546</v>
       </c>
       <c r="J2">
-        <v>9.177226295121701</v>
+        <v>9.388265981035012</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.56789266866427</v>
       </c>
       <c r="M2">
-        <v>11.06147494394347</v>
+        <v>9.788382509334234</v>
       </c>
       <c r="N2">
-        <v>7.173277312258975</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.08178069167049</v>
       </c>
       <c r="P2">
-        <v>12.72426325205382</v>
+        <v>7.285225835038283</v>
       </c>
       <c r="Q2">
-        <v>14.94924973039516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.61468635756163</v>
+      </c>
+      <c r="S2">
+        <v>14.55094458821527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.00956414620349</v>
+        <v>12.68742774770293</v>
       </c>
       <c r="C3">
-        <v>8.800111908861307</v>
+        <v>8.375046791817155</v>
       </c>
       <c r="D3">
-        <v>5.155221292265081</v>
+        <v>5.178990915360103</v>
       </c>
       <c r="E3">
-        <v>9.29285428277713</v>
+        <v>9.103868805652649</v>
       </c>
       <c r="F3">
-        <v>17.84123427364998</v>
+        <v>17.3927679744216</v>
       </c>
       <c r="G3">
-        <v>22.38179772110729</v>
+        <v>21.04567859027485</v>
       </c>
       <c r="H3">
-        <v>2.2554464318494</v>
+        <v>2.1591710875939</v>
       </c>
       <c r="I3">
-        <v>3.133298282465686</v>
+        <v>3.01114030595215</v>
       </c>
       <c r="J3">
-        <v>9.191376929165552</v>
+        <v>9.384588523458385</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.69005096368185</v>
       </c>
       <c r="M3">
-        <v>10.46742874333873</v>
+        <v>9.752872488505274</v>
       </c>
       <c r="N3">
-        <v>6.909838060547393</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.49060641472206</v>
       </c>
       <c r="P3">
-        <v>12.84940735584127</v>
+        <v>7.023496810502807</v>
       </c>
       <c r="Q3">
-        <v>14.89467600050484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.7294629846198</v>
+      </c>
+      <c r="S3">
+        <v>14.52601612826909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.44599715731462</v>
+        <v>12.14820210593451</v>
       </c>
       <c r="C4">
-        <v>8.745358362251004</v>
+        <v>8.291056735602117</v>
       </c>
       <c r="D4">
-        <v>5.02446609580214</v>
+        <v>5.03666503498107</v>
       </c>
       <c r="E4">
-        <v>9.131202274402723</v>
+        <v>8.958946101710378</v>
       </c>
       <c r="F4">
-        <v>17.65987000236418</v>
+        <v>17.23805574812921</v>
       </c>
       <c r="G4">
-        <v>22.17331920064294</v>
+        <v>20.90095228506233</v>
       </c>
       <c r="H4">
-        <v>2.365995805380641</v>
+        <v>2.262463890844204</v>
       </c>
       <c r="I4">
-        <v>3.220285371752519</v>
+        <v>3.089087124036088</v>
       </c>
       <c r="J4">
-        <v>9.20246948165852</v>
+        <v>9.383200344748268</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.76613936496722</v>
       </c>
       <c r="M4">
-        <v>10.08393624091537</v>
+        <v>9.748261631763205</v>
       </c>
       <c r="N4">
-        <v>6.743024931909014</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.10904241109746</v>
       </c>
       <c r="P4">
-        <v>12.92789383095383</v>
+        <v>6.858095974330316</v>
       </c>
       <c r="Q4">
-        <v>14.86588599280992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.80180368089198</v>
+      </c>
+      <c r="S4">
+        <v>14.51457312078758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.20285874257176</v>
+        <v>11.91507828436001</v>
       </c>
       <c r="C5">
-        <v>8.723763658043177</v>
+        <v>8.25844817094444</v>
       </c>
       <c r="D5">
-        <v>4.971187571896028</v>
+        <v>4.978589610499534</v>
       </c>
       <c r="E5">
-        <v>9.061457191153691</v>
+        <v>8.896128723563278</v>
       </c>
       <c r="F5">
-        <v>17.58144182241762</v>
+        <v>17.17032062741047</v>
       </c>
       <c r="G5">
-        <v>22.07993941797703</v>
+        <v>20.83393314131439</v>
       </c>
       <c r="H5">
-        <v>2.412409652712071</v>
+        <v>2.305853255500974</v>
       </c>
       <c r="I5">
-        <v>3.259503974130367</v>
+        <v>3.125068909201984</v>
       </c>
       <c r="J5">
-        <v>9.206002649168646</v>
+        <v>9.381267168619573</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.79312778777533</v>
       </c>
       <c r="M5">
-        <v>9.923087732552528</v>
+        <v>9.748191199753377</v>
       </c>
       <c r="N5">
-        <v>6.674408840910983</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.949031589592602</v>
       </c>
       <c r="P5">
-        <v>12.96006945868731</v>
+        <v>6.790146284707665</v>
       </c>
       <c r="Q5">
-        <v>14.85129013807019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.83161349172895</v>
+      </c>
+      <c r="S5">
+        <v>14.50688794261284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.15533149448671</v>
+        <v>11.86920745241634</v>
       </c>
       <c r="C6">
-        <v>8.721493107207417</v>
+        <v>8.255335277047129</v>
       </c>
       <c r="D6">
-        <v>4.963704332867233</v>
+        <v>4.970338841262164</v>
       </c>
       <c r="E6">
-        <v>9.046608788999851</v>
+        <v>8.882481667417466</v>
       </c>
       <c r="F6">
-        <v>17.56148173347492</v>
+        <v>17.15216745773764</v>
       </c>
       <c r="G6">
-        <v>22.05226348998019</v>
+        <v>20.8106482293021</v>
       </c>
       <c r="H6">
-        <v>2.420553369711088</v>
+        <v>2.313481810051741</v>
       </c>
       <c r="I6">
-        <v>3.269613423000037</v>
+        <v>3.135265649373914</v>
       </c>
       <c r="J6">
-        <v>9.204692427306927</v>
+        <v>9.379022507484118</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.7923881353004</v>
       </c>
       <c r="M6">
-        <v>9.896178299386005</v>
+        <v>9.745346434002352</v>
       </c>
       <c r="N6">
-        <v>6.663636003777376</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.922270731203445</v>
       </c>
       <c r="P6">
-        <v>12.96516331436174</v>
+        <v>6.779483943952989</v>
       </c>
       <c r="Q6">
-        <v>14.84400795481127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.83642476931104</v>
+      </c>
+      <c r="S6">
+        <v>14.50081443925551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.42494715769678</v>
+        <v>12.12380067323143</v>
       </c>
       <c r="C7">
-        <v>8.748753560139523</v>
+        <v>8.295343277222459</v>
       </c>
       <c r="D7">
-        <v>5.027628629132032</v>
+        <v>5.042349872900219</v>
       </c>
       <c r="E7">
-        <v>9.121640943345904</v>
+        <v>8.950152658001471</v>
       </c>
       <c r="F7">
-        <v>17.63977205627862</v>
+        <v>17.20686941340369</v>
       </c>
       <c r="G7">
-        <v>22.13872921224808</v>
+        <v>20.94405804503778</v>
       </c>
       <c r="H7">
-        <v>2.367615898383394</v>
+        <v>2.264443319912827</v>
       </c>
       <c r="I7">
-        <v>3.230159959904252</v>
+        <v>3.101009985990287</v>
       </c>
       <c r="J7">
-        <v>9.197249032781675</v>
+        <v>9.345604369162126</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.74758853619456</v>
       </c>
       <c r="M7">
-        <v>10.08199359340383</v>
+        <v>9.736281294470922</v>
       </c>
       <c r="N7">
-        <v>6.743975406996816</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.10361442734087</v>
       </c>
       <c r="P7">
-        <v>12.92763005172959</v>
+        <v>6.858542227229125</v>
       </c>
       <c r="Q7">
-        <v>14.852261046686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.80170617152112</v>
+      </c>
+      <c r="S7">
+        <v>14.49340031630846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56153899218513</v>
+        <v>13.2032156720507</v>
       </c>
       <c r="C8">
-        <v>8.862475411886299</v>
+        <v>8.467275435436893</v>
       </c>
       <c r="D8">
-        <v>5.295621821760108</v>
+        <v>5.339430954400459</v>
       </c>
       <c r="E8">
-        <v>9.449906696301234</v>
+        <v>9.24540366554363</v>
       </c>
       <c r="F8">
-        <v>18.01411301078787</v>
+        <v>17.49983530333413</v>
       </c>
       <c r="G8">
-        <v>22.5664537207305</v>
+        <v>21.41825056529886</v>
       </c>
       <c r="H8">
-        <v>2.142307809957098</v>
+        <v>2.054849176659822</v>
       </c>
       <c r="I8">
-        <v>3.055878918933548</v>
+        <v>2.946753870349567</v>
       </c>
       <c r="J8">
-        <v>9.174686191443858</v>
+        <v>9.274766202905303</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.57783161985145</v>
       </c>
       <c r="M8">
-        <v>10.860848411615</v>
+        <v>9.747634660050657</v>
       </c>
       <c r="N8">
-        <v>7.085930835540776</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.87119421442262</v>
       </c>
       <c r="P8">
-        <v>12.7663894857925</v>
+        <v>7.196833593197666</v>
       </c>
       <c r="Q8">
-        <v>14.91186491897579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.65362522256453</v>
+      </c>
+      <c r="S8">
+        <v>14.49845144675211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.56216173270182</v>
+        <v>15.11464922599472</v>
       </c>
       <c r="C9">
-        <v>9.068219130071267</v>
+        <v>8.790540296225505</v>
       </c>
       <c r="D9">
-        <v>5.7752908772715</v>
+        <v>5.862752071916693</v>
       </c>
       <c r="E9">
-        <v>10.06459391579067</v>
+        <v>9.796128175415356</v>
       </c>
       <c r="F9">
-        <v>18.81451895159143</v>
+        <v>18.17769000973367</v>
       </c>
       <c r="G9">
-        <v>23.50987898234248</v>
+        <v>22.18266436350041</v>
       </c>
       <c r="H9">
-        <v>1.731386275452904</v>
+        <v>1.671459494254566</v>
       </c>
       <c r="I9">
-        <v>2.730478692802998</v>
+        <v>2.655551567787437</v>
       </c>
       <c r="J9">
-        <v>9.159374653620244</v>
+        <v>9.266824387671321</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.29363756417996</v>
       </c>
       <c r="M9">
-        <v>12.23644468547656</v>
+        <v>9.934869368056495</v>
       </c>
       <c r="N9">
-        <v>7.710476658427927</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.23869398945765</v>
       </c>
       <c r="P9">
-        <v>12.46382828601343</v>
+        <v>7.818699037480252</v>
       </c>
       <c r="Q9">
-        <v>15.09076654989591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.37855625979069</v>
+      </c>
+      <c r="S9">
+        <v>14.59197214720493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.81091452604351</v>
+        <v>16.32881644929008</v>
       </c>
       <c r="C10">
-        <v>9.232098158622165</v>
+        <v>9.042518741290346</v>
       </c>
       <c r="D10">
-        <v>6.121139029920363</v>
+        <v>6.249457710219702</v>
       </c>
       <c r="E10">
-        <v>10.31793907366561</v>
+        <v>10.01390927351075</v>
       </c>
       <c r="F10">
-        <v>19.32607659042913</v>
+        <v>18.54561329902286</v>
       </c>
       <c r="G10">
-        <v>24.06477022639209</v>
+        <v>23.0558143146993</v>
       </c>
       <c r="H10">
-        <v>1.663541745227086</v>
+        <v>1.701613434384783</v>
       </c>
       <c r="I10">
-        <v>2.521631884404875</v>
+        <v>2.508610878272577</v>
       </c>
       <c r="J10">
-        <v>9.133755025011988</v>
+        <v>9.068113009343509</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.02359072850622</v>
       </c>
       <c r="M10">
-        <v>13.14744081024375</v>
+        <v>10.07363257376677</v>
       </c>
       <c r="N10">
-        <v>8.01043984820533</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.12799841059376</v>
       </c>
       <c r="P10">
-        <v>12.24947311521964</v>
+        <v>8.1151299997825</v>
       </c>
       <c r="Q10">
-        <v>15.17824946375475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.18968188771894</v>
+      </c>
+      <c r="S10">
+        <v>14.57604813842129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.85085991268217</v>
+        <v>16.36875511185715</v>
       </c>
       <c r="C11">
-        <v>9.504258603900345</v>
+        <v>9.402893218029847</v>
       </c>
       <c r="D11">
-        <v>6.427893626421175</v>
+        <v>6.587084720322876</v>
       </c>
       <c r="E11">
-        <v>9.095901856943721</v>
+        <v>8.832738439226249</v>
       </c>
       <c r="F11">
-        <v>18.80460008503554</v>
+        <v>17.92609810839563</v>
       </c>
       <c r="G11">
-        <v>22.99411911017402</v>
+        <v>22.95916551074626</v>
       </c>
       <c r="H11">
-        <v>2.650270468346017</v>
+        <v>2.669074902782586</v>
       </c>
       <c r="I11">
-        <v>2.51285509567022</v>
+        <v>2.563345743910812</v>
       </c>
       <c r="J11">
-        <v>8.904008308586622</v>
+        <v>8.552394843735762</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.53141417438726</v>
       </c>
       <c r="M11">
-        <v>13.50022900735985</v>
+        <v>9.681296395187653</v>
       </c>
       <c r="N11">
-        <v>7.050340537184336</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.44364195813518</v>
       </c>
       <c r="P11">
-        <v>12.17269044218274</v>
+        <v>7.14402738622149</v>
       </c>
       <c r="Q11">
-        <v>14.66529138481476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.15047206774021</v>
+      </c>
+      <c r="S11">
+        <v>14.00418564980486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.65004450713444</v>
+        <v>16.18400076020216</v>
       </c>
       <c r="C12">
-        <v>9.749967328110088</v>
+        <v>9.689242421576997</v>
       </c>
       <c r="D12">
-        <v>6.614220403629815</v>
+        <v>6.783151792490909</v>
       </c>
       <c r="E12">
-        <v>8.195643784736012</v>
+        <v>7.976845905108212</v>
       </c>
       <c r="F12">
-        <v>18.2699458247126</v>
+        <v>17.37767985914302</v>
       </c>
       <c r="G12">
-        <v>22.00302635144127</v>
+        <v>22.45401330006265</v>
       </c>
       <c r="H12">
-        <v>4.058398544305835</v>
+        <v>4.047310883758461</v>
       </c>
       <c r="I12">
-        <v>2.517194627157488</v>
+        <v>2.565864804160412</v>
       </c>
       <c r="J12">
-        <v>8.72106523133054</v>
+        <v>8.297029811950596</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.22160200911822</v>
       </c>
       <c r="M12">
-        <v>13.61267765748383</v>
+        <v>9.348498639507538</v>
       </c>
       <c r="N12">
-        <v>6.219860100562734</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.53879868081267</v>
       </c>
       <c r="P12">
-        <v>12.1681384184208</v>
+        <v>6.3058111192091</v>
       </c>
       <c r="Q12">
-        <v>14.22752848224659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.17075792274539</v>
+      </c>
+      <c r="S12">
+        <v>13.56870469342898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.21436883731638</v>
+        <v>15.79567810991355</v>
       </c>
       <c r="C13">
-        <v>9.989952402248468</v>
+        <v>9.94984376555837</v>
       </c>
       <c r="D13">
-        <v>6.727763850685714</v>
+        <v>6.884700916100647</v>
       </c>
       <c r="E13">
-        <v>7.52924386835157</v>
+        <v>7.36146867311603</v>
       </c>
       <c r="F13">
-        <v>17.65663403829794</v>
+        <v>16.84102958506889</v>
       </c>
       <c r="G13">
-        <v>20.95265802333071</v>
+        <v>21.35183832828352</v>
       </c>
       <c r="H13">
-        <v>5.509622285450593</v>
+        <v>5.500091079636211</v>
       </c>
       <c r="I13">
-        <v>2.518078914342499</v>
+        <v>2.536845217701314</v>
       </c>
       <c r="J13">
-        <v>8.555025765785416</v>
+        <v>8.226783639868394</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.00818039170366</v>
       </c>
       <c r="M13">
-        <v>13.55068885329161</v>
+        <v>9.038919327607497</v>
       </c>
       <c r="N13">
-        <v>5.452375642397747</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.48042017660038</v>
       </c>
       <c r="P13">
-        <v>12.21496942775249</v>
+        <v>5.53360005740303</v>
       </c>
       <c r="Q13">
-        <v>13.79947198885909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.22878854207346</v>
+      </c>
+      <c r="S13">
+        <v>13.20677556734328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.79258690738383</v>
+        <v>15.42170278104878</v>
       </c>
       <c r="C14">
-        <v>10.16272524503302</v>
+        <v>10.12875140197293</v>
       </c>
       <c r="D14">
-        <v>6.776583548754989</v>
+        <v>6.915104758350939</v>
       </c>
       <c r="E14">
-        <v>7.23621123352267</v>
+        <v>7.10789344995823</v>
       </c>
       <c r="F14">
-        <v>17.18409640430729</v>
+        <v>16.46133833467624</v>
       </c>
       <c r="G14">
-        <v>20.1804438613797</v>
+        <v>20.31351323851232</v>
       </c>
       <c r="H14">
-        <v>6.529631493595868</v>
+        <v>6.520116262057157</v>
       </c>
       <c r="I14">
-        <v>2.559592604527213</v>
+        <v>2.516965188242218</v>
       </c>
       <c r="J14">
-        <v>8.445990203927884</v>
+        <v>8.245098575451564</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.8950423429763</v>
       </c>
       <c r="M14">
-        <v>13.42776387695217</v>
+        <v>8.834925632074169</v>
       </c>
       <c r="N14">
-        <v>4.972759892951039</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.36925074875602</v>
       </c>
       <c r="P14">
-        <v>12.27161462712284</v>
+        <v>5.051865204299317</v>
       </c>
       <c r="Q14">
-        <v>13.5024104620775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.28535061572462</v>
+      </c>
+      <c r="S14">
+        <v>12.98178019834793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6323870425552</v>
+        <v>15.27957240314736</v>
       </c>
       <c r="C15">
-        <v>10.20109843543175</v>
+        <v>10.16724416689376</v>
       </c>
       <c r="D15">
-        <v>6.774055172404923</v>
+        <v>6.903799972047874</v>
       </c>
       <c r="E15">
-        <v>7.18999533420448</v>
+        <v>7.072196445373119</v>
       </c>
       <c r="F15">
-        <v>17.04714826799893</v>
+        <v>16.36367044651723</v>
       </c>
       <c r="G15">
-        <v>19.97102260719603</v>
+        <v>19.94398727302255</v>
       </c>
       <c r="H15">
-        <v>6.765961519513169</v>
+        <v>6.756084447389086</v>
       </c>
       <c r="I15">
-        <v>2.582676399571195</v>
+        <v>2.538059174559322</v>
       </c>
       <c r="J15">
-        <v>8.421838321688019</v>
+        <v>8.278477226949128</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.87950291494876</v>
       </c>
       <c r="M15">
-        <v>13.36002137612853</v>
+        <v>8.787734745798673</v>
       </c>
       <c r="N15">
-        <v>4.865435796410066</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.3083945038387</v>
       </c>
       <c r="P15">
-        <v>12.29457459033206</v>
+        <v>4.944720164733495</v>
       </c>
       <c r="Q15">
-        <v>13.42897234140195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.30521888422268</v>
+      </c>
+      <c r="S15">
+        <v>12.93677328151987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.14346595986445</v>
+        <v>14.84517638238734</v>
       </c>
       <c r="C16">
-        <v>10.0820156924812</v>
+        <v>10.03074227091286</v>
       </c>
       <c r="D16">
-        <v>6.615692593204122</v>
+        <v>6.709316672943808</v>
       </c>
       <c r="E16">
-        <v>7.192552838589748</v>
+        <v>7.079738126886586</v>
       </c>
       <c r="F16">
-        <v>16.92070430579239</v>
+        <v>16.37497468978989</v>
       </c>
       <c r="G16">
-        <v>19.89894274435836</v>
+        <v>19.10643136061653</v>
       </c>
       <c r="H16">
-        <v>6.557186882328087</v>
+        <v>6.543449386375295</v>
       </c>
       <c r="I16">
-        <v>2.671390468361539</v>
+        <v>2.614326575117518</v>
       </c>
       <c r="J16">
-        <v>8.463180129892873</v>
+        <v>8.557333255418479</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.01589480925875</v>
       </c>
       <c r="M16">
-        <v>12.99556273758821</v>
+        <v>8.836656368555253</v>
       </c>
       <c r="N16">
-        <v>4.865453214778916</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.97761757118381</v>
       </c>
       <c r="P16">
-        <v>12.36706147470307</v>
+        <v>4.951896232144862</v>
       </c>
       <c r="Q16">
-        <v>13.46714306805837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.35233799893596</v>
+      </c>
+      <c r="S16">
+        <v>13.06489508499009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.01125577077948</v>
+        <v>14.70940065097272</v>
       </c>
       <c r="C17">
-        <v>9.893841385454314</v>
+        <v>9.821368158198444</v>
       </c>
       <c r="D17">
-        <v>6.465149250868081</v>
+        <v>6.544945963434381</v>
       </c>
       <c r="E17">
-        <v>7.317758910213754</v>
+        <v>7.186449583749437</v>
       </c>
       <c r="F17">
-        <v>17.08074407951663</v>
+        <v>16.5758542045858</v>
       </c>
       <c r="G17">
-        <v>20.26032174907903</v>
+        <v>19.13099231694262</v>
       </c>
       <c r="H17">
-        <v>5.822388685929994</v>
+        <v>5.804782543839644</v>
       </c>
       <c r="I17">
-        <v>2.718303533991954</v>
+        <v>2.655288400537199</v>
       </c>
       <c r="J17">
-        <v>8.552684087478557</v>
+        <v>8.746567311816586</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.18710777771873</v>
       </c>
       <c r="M17">
-        <v>12.77854826202451</v>
+        <v>8.97227251950677</v>
       </c>
       <c r="N17">
-        <v>5.109056922606677</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.77585083335076</v>
       </c>
       <c r="P17">
-        <v>12.39370472869146</v>
+        <v>5.201533610658482</v>
       </c>
       <c r="Q17">
-        <v>13.65448523252187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.36364520212656</v>
+      </c>
+      <c r="S17">
+        <v>13.27472227223775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.17622117664036</v>
+        <v>14.84119780739259</v>
       </c>
       <c r="C18">
-        <v>9.638888976248538</v>
+        <v>9.536927219224509</v>
       </c>
       <c r="D18">
-        <v>6.303798602071534</v>
+        <v>6.382268169546862</v>
       </c>
       <c r="E18">
-        <v>7.731288234415564</v>
+        <v>7.559907503633838</v>
       </c>
       <c r="F18">
-        <v>17.51478251886106</v>
+        <v>16.99537106959228</v>
       </c>
       <c r="G18">
-        <v>21.05626781396965</v>
+        <v>19.74397162098198</v>
       </c>
       <c r="H18">
-        <v>4.574309282355253</v>
+        <v>4.551294262627914</v>
       </c>
       <c r="I18">
-        <v>2.72153139681962</v>
+        <v>2.655173504922062</v>
       </c>
       <c r="J18">
-        <v>8.697396891851126</v>
+        <v>8.921509248119444</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.43059303012299</v>
       </c>
       <c r="M18">
-        <v>12.66895489186049</v>
+        <v>9.211695014655142</v>
       </c>
       <c r="N18">
-        <v>5.657931716623541</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.67311170118691</v>
       </c>
       <c r="P18">
-        <v>12.38949282165174</v>
+        <v>5.755862751278168</v>
       </c>
       <c r="Q18">
-        <v>14.00058691200482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.34716421276769</v>
+      </c>
+      <c r="S18">
+        <v>13.60403395066611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.5347756057036</v>
+        <v>15.1531620223279</v>
       </c>
       <c r="C19">
-        <v>9.406381510052011</v>
+        <v>9.268107117761028</v>
       </c>
       <c r="D19">
-        <v>6.15608069074999</v>
+        <v>6.240870010454054</v>
       </c>
       <c r="E19">
-        <v>8.538678656384288</v>
+        <v>8.317058873806742</v>
       </c>
       <c r="F19">
-        <v>18.09960572556516</v>
+        <v>17.53221324367465</v>
       </c>
       <c r="G19">
-        <v>22.08626334335066</v>
+        <v>20.65954801136628</v>
       </c>
       <c r="H19">
-        <v>3.096923789842769</v>
+        <v>3.065001271431549</v>
       </c>
       <c r="I19">
-        <v>2.707346085233079</v>
+        <v>2.644035699507949</v>
       </c>
       <c r="J19">
-        <v>8.868362111641297</v>
+        <v>9.084123053545088</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.70919432810958</v>
       </c>
       <c r="M19">
-        <v>12.65648682379213</v>
+        <v>9.509162722515246</v>
       </c>
       <c r="N19">
-        <v>6.482583870192385</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.66271744170714</v>
       </c>
       <c r="P19">
-        <v>12.37180263825134</v>
+        <v>6.585081899688504</v>
       </c>
       <c r="Q19">
-        <v>14.42897822815205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.31832729570079</v>
+      </c>
+      <c r="S19">
+        <v>13.99159970034191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.44744407047817</v>
+        <v>15.98533991410146</v>
       </c>
       <c r="C20">
-        <v>9.204190211817796</v>
+        <v>9.00801026487111</v>
       </c>
       <c r="D20">
-        <v>6.043640812126159</v>
+        <v>6.153857980664101</v>
       </c>
       <c r="E20">
-        <v>10.22203777728249</v>
+        <v>9.925836942135238</v>
       </c>
       <c r="F20">
-        <v>19.13275041615289</v>
+        <v>18.42847982544246</v>
       </c>
       <c r="G20">
-        <v>23.81542982040543</v>
+        <v>22.45884923446494</v>
       </c>
       <c r="H20">
-        <v>1.589383904679039</v>
+        <v>1.63399019296253</v>
       </c>
       <c r="I20">
-        <v>2.608226042354515</v>
+        <v>2.558124481869099</v>
       </c>
       <c r="J20">
-        <v>9.122599532296316</v>
+        <v>9.21128786423979</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.07278602387596</v>
       </c>
       <c r="M20">
-        <v>12.91502686721397</v>
+        <v>10.00970933084803</v>
       </c>
       <c r="N20">
-        <v>7.932208399759711</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.91132936706838</v>
       </c>
       <c r="P20">
-        <v>12.30489363654938</v>
+        <v>8.039164773379474</v>
       </c>
       <c r="Q20">
-        <v>15.11079997984557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.23903819814639</v>
+      </c>
+      <c r="S20">
+        <v>14.56466372777392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.46544826280829</v>
+        <v>16.90714252491661</v>
       </c>
       <c r="C21">
-        <v>9.300378236200336</v>
+        <v>9.126732111909027</v>
       </c>
       <c r="D21">
-        <v>6.271323154999667</v>
+        <v>6.453652475206471</v>
       </c>
       <c r="E21">
-        <v>10.66902246696021</v>
+        <v>10.34928544338775</v>
       </c>
       <c r="F21">
-        <v>19.67280035507502</v>
+        <v>18.65024248298956</v>
       </c>
       <c r="G21">
-        <v>24.50050637432673</v>
+        <v>24.77101361043833</v>
       </c>
       <c r="H21">
-        <v>1.802259078946225</v>
+        <v>1.825601909736266</v>
       </c>
       <c r="I21">
-        <v>2.575521019263002</v>
+        <v>2.618827144516287</v>
       </c>
       <c r="J21">
-        <v>9.148673797520654</v>
+        <v>8.583629876328462</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.87324998921241</v>
       </c>
       <c r="M21">
-        <v>13.59107146441004</v>
+        <v>10.13381749084327</v>
       </c>
       <c r="N21">
-        <v>8.354328088235583</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.51967630229156</v>
       </c>
       <c r="P21">
-        <v>12.14226064084242</v>
+        <v>8.452656815136521</v>
       </c>
       <c r="Q21">
-        <v>15.29117600498397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.09845051336243</v>
+      </c>
+      <c r="S21">
+        <v>14.50990055150392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.10365024567476</v>
+        <v>17.46816250163898</v>
       </c>
       <c r="C22">
-        <v>9.365244749858904</v>
+        <v>9.206007575342614</v>
       </c>
       <c r="D22">
-        <v>6.419869166902348</v>
+        <v>6.650291616369521</v>
       </c>
       <c r="E22">
-        <v>10.87954833028712</v>
+        <v>10.54941114966603</v>
       </c>
       <c r="F22">
-        <v>20.00586511197709</v>
+        <v>18.76539130056334</v>
       </c>
       <c r="G22">
-        <v>24.91364327910273</v>
+        <v>26.37430938277546</v>
       </c>
       <c r="H22">
-        <v>1.934951524942983</v>
+        <v>1.944784445033337</v>
       </c>
       <c r="I22">
-        <v>2.673589096825373</v>
+        <v>2.700013119557766</v>
       </c>
       <c r="J22">
-        <v>9.162318669903275</v>
+        <v>8.203888026907173</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.73330887480254</v>
       </c>
       <c r="M22">
-        <v>14.01254754214391</v>
+        <v>10.20896273679261</v>
       </c>
       <c r="N22">
-        <v>8.554909825115883</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.89521697383145</v>
       </c>
       <c r="P22">
-        <v>12.03742058698636</v>
+        <v>8.647283517305977</v>
       </c>
       <c r="Q22">
-        <v>15.39842313867622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.01055446613391</v>
+      </c>
+      <c r="S22">
+        <v>14.45316823694504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.7810334317469</v>
+        <v>17.19300894587805</v>
       </c>
       <c r="C23">
-        <v>9.3254457829511</v>
+        <v>9.158624173366444</v>
       </c>
       <c r="D23">
-        <v>6.337160231375282</v>
+        <v>6.536323842373267</v>
       </c>
       <c r="E23">
-        <v>10.77628237505916</v>
+        <v>10.44968141331113</v>
       </c>
       <c r="F23">
-        <v>19.84781822401577</v>
+        <v>18.75059473277231</v>
       </c>
       <c r="G23">
-        <v>24.72780338543651</v>
+        <v>25.35498281644816</v>
       </c>
       <c r="H23">
-        <v>1.865307255057812</v>
+        <v>1.882962632082526</v>
       </c>
       <c r="I23">
-        <v>2.616071071193239</v>
+        <v>2.650662761640637</v>
       </c>
       <c r="J23">
-        <v>9.160794364885296</v>
+        <v>8.462638609858432</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.82775229873016</v>
       </c>
       <c r="M23">
-        <v>13.78901326751951</v>
+        <v>10.19402338425553</v>
       </c>
       <c r="N23">
-        <v>8.446526487853125</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.70305777227208</v>
       </c>
       <c r="P23">
-        <v>12.09326652509144</v>
+        <v>8.543015779783921</v>
       </c>
       <c r="Q23">
-        <v>15.35569108389828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.05555122168608</v>
+      </c>
+      <c r="S23">
+        <v>14.51770674371048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.50095167796106</v>
+        <v>16.03468816898665</v>
       </c>
       <c r="C24">
-        <v>9.181320598380367</v>
+        <v>8.971770592967909</v>
       </c>
       <c r="D24">
-        <v>6.019914575377634</v>
+        <v>6.130033595053657</v>
       </c>
       <c r="E24">
-        <v>10.36025034136952</v>
+        <v>10.05979094650752</v>
       </c>
       <c r="F24">
-        <v>19.22250508586167</v>
+        <v>18.51477426572469</v>
       </c>
       <c r="G24">
-        <v>23.9775748824612</v>
+        <v>22.59929158286262</v>
       </c>
       <c r="H24">
-        <v>1.59384434231356</v>
+        <v>1.638548935266402</v>
       </c>
       <c r="I24">
-        <v>2.586706550856322</v>
+        <v>2.533009302569774</v>
       </c>
       <c r="J24">
-        <v>9.150918555183216</v>
+        <v>9.242016564759247</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.12639894858362</v>
       </c>
       <c r="M24">
-        <v>12.90729405363115</v>
+        <v>10.06471083085347</v>
       </c>
       <c r="N24">
-        <v>8.02690974484589</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.90417880827363</v>
       </c>
       <c r="P24">
-        <v>12.30734521020707</v>
+        <v>8.13440867145485</v>
       </c>
       <c r="Q24">
-        <v>15.18047145967799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.23863216541604</v>
+      </c>
+      <c r="S24">
+        <v>14.63060385139719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.02163625722957</v>
+        <v>14.59795450547657</v>
       </c>
       <c r="C25">
-        <v>9.021089147115656</v>
+        <v>8.719596810978123</v>
       </c>
       <c r="D25">
-        <v>5.656346025111302</v>
+        <v>5.729370921868007</v>
       </c>
       <c r="E25">
-        <v>9.889046440101627</v>
+        <v>9.636951256056513</v>
       </c>
       <c r="F25">
-        <v>18.56238720925122</v>
+        <v>17.9747810526469</v>
       </c>
       <c r="G25">
-        <v>23.1930101858807</v>
+        <v>21.80511349578763</v>
       </c>
       <c r="H25">
-        <v>1.84070366248441</v>
+        <v>1.772944475608993</v>
       </c>
       <c r="I25">
-        <v>2.832554340687152</v>
+        <v>2.751053681261475</v>
       </c>
       <c r="J25">
-        <v>9.151995059210133</v>
+        <v>9.303683091475417</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.35502070545721</v>
       </c>
       <c r="M25">
-        <v>11.88117097809146</v>
+        <v>9.855693101242002</v>
       </c>
       <c r="N25">
-        <v>7.549572414252929</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.88987486600714</v>
       </c>
       <c r="P25">
-        <v>12.54381647393012</v>
+        <v>7.658872281476585</v>
       </c>
       <c r="Q25">
-        <v>15.01452268105672</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.45152839969977</v>
+      </c>
+      <c r="S25">
+        <v>14.55108076786789</v>
       </c>
     </row>
   </sheetData>
